--- a/WIP/2.3 HW1 Campaign RU.xlsx
+++ b/WIP/2.3 HW1 Campaign RU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Homeworld Remastered Patch Beta\HomeworldRM\Git\2.3\BalanceInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Homeworld Remastered Patch Beta\HomeworldRM\Git\File_Share\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
-  <si>
-    <t>b8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="45">
   <si>
     <t>b9</t>
   </si>
@@ -148,41 +145,44 @@
     <t>Special Notes</t>
   </si>
   <si>
-    <t>4.5 in Raiders Retreat</t>
-  </si>
-  <si>
     <t>4.5 Raiders Retreat</t>
   </si>
   <si>
     <t>Its Free</t>
   </si>
   <si>
-    <t>4 from Bentusi for less ru</t>
-  </si>
-  <si>
-    <t>6 from Bentusi for less ru</t>
-  </si>
-  <si>
     <t>Potentially get in 9 for Free. M12 is full price.</t>
   </si>
   <si>
-    <t>Research Cost Change</t>
-  </si>
-  <si>
-    <t>Current 2.205 to WIP Level RU Change</t>
-  </si>
-  <si>
-    <t>Desired 2.205 to WIP Level RU Change</t>
-  </si>
-  <si>
-    <t>diff</t>
+    <t>b9 Cost</t>
+  </si>
+  <si>
+    <t>b10 Cost</t>
+  </si>
+  <si>
+    <t>4 from Bentusi for less ru (same in b10)</t>
+  </si>
+  <si>
+    <t>6 from Bentusi for less ru (same in b10)</t>
+  </si>
+  <si>
+    <t>4 from Bentusi for less ru (same in b10) or 4.5 in Raiders Retreat.</t>
+  </si>
+  <si>
+    <t>b10</t>
+  </si>
+  <si>
+    <t>2.205 to b10 Res Cost Change</t>
+  </si>
+  <si>
+    <t>2.205 to b10 WIP Level RU Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,9 +239,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,59 +520,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -577,36 +594,47 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>B3</f>
         <v>200</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>C3</f>
         <v>800</v>
       </c>
-      <c r="J2">
-        <f>I2-H2</f>
-        <v>600</v>
-      </c>
       <c r="K2">
-        <v>1500</v>
-      </c>
-      <c r="L2" s="3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <f>D3</f>
+        <v>800</v>
+      </c>
+      <c r="L2">
+        <f>E3</f>
+        <v>300</v>
+      </c>
+      <c r="M2">
+        <f>L2-I2</f>
+        <v>100</v>
+      </c>
+      <c r="N2" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>200</v>
@@ -615,33 +643,44 @@
         <v>800</v>
       </c>
       <c r="D3" s="1">
+        <v>800</v>
+      </c>
+      <c r="E3" s="3">
+        <v>300</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>SUM(B7:B9)</f>
         <v>1200</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>SUM(C7:C9)</f>
         <v>3300</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J18" si="0">I3-H3</f>
+      <c r="K3">
+        <f>SUM(D7:D9)</f>
+        <v>3300</v>
+      </c>
+      <c r="L3">
+        <f>SUM(E7:E9)</f>
         <v>2100</v>
       </c>
-      <c r="K3">
-        <v>2247</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M18" si="0">L3-I3</f>
+        <v>900</v>
+      </c>
+      <c r="N3" s="3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>300</v>
@@ -650,106 +689,139 @@
         <v>1000</v>
       </c>
       <c r="D4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>800</v>
+      </c>
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>SUM(B12:B13)</f>
         <v>900</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>SUM(C12:C13)</f>
         <v>1500</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <f>SUM(D12:D13)</f>
+        <v>1500</v>
+      </c>
+      <c r="L4">
+        <f>SUM(E12:E13)</f>
+        <v>1200</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="N4" s="3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f>B14/2</f>
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <f>C14/2</f>
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <f>D14/2</f>
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <f>E14/2</f>
+        <v>850</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="N5" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1100</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <f>SUM(B5)</f>
+        <v>400</v>
+      </c>
+      <c r="J6">
+        <f>SUM(C5)</f>
+        <v>1000</v>
+      </c>
+      <c r="K6">
+        <f>SUM(D5)</f>
+        <v>1100</v>
+      </c>
+      <c r="L6">
+        <f>SUM(E5)</f>
+        <v>1000</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4" s="3">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1">
-        <v>400</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <f>B14/2</f>
+      <c r="N6" s="3">
         <v>500</v>
       </c>
-      <c r="I5">
-        <f>C14/2</f>
-        <v>1000</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>500</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1100</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6">
-        <f>SUM(B5)</f>
-        <v>400</v>
-      </c>
-      <c r="I6">
-        <f>SUM(C5)</f>
-        <v>1000</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>300</v>
@@ -758,33 +830,44 @@
         <v>1500</v>
       </c>
       <c r="D7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>SUM(B4:B5)</f>
         <v>700</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f>SUM(C4:C5)</f>
         <v>2000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
+        <f>SUM(D4:D5)</f>
+        <v>2100</v>
+      </c>
+      <c r="L7">
+        <f>SUM(E4:E5)</f>
+        <v>1800</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="K7">
-        <v>595</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>400</v>
@@ -793,36 +876,47 @@
         <v>1200</v>
       </c>
       <c r="D8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>SUM(B14/2,B15/2,B16)</f>
         <v>2350</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>SUM(C14/2,C15/2,C16)</f>
         <v>3350</v>
       </c>
-      <c r="J8">
+      <c r="K8">
+        <f>SUM(D14/2,D15/2,D16)</f>
+        <v>3350</v>
+      </c>
+      <c r="L8">
+        <f>SUM(E14/2,E15/2,E16)</f>
+        <v>2900</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="K8">
-        <v>1582</v>
-      </c>
-      <c r="L8" s="3">
-        <v>997.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="N8" s="3">
+        <v>587.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>500</v>
@@ -831,33 +925,44 @@
         <v>600</v>
       </c>
       <c r="D9" s="1">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>SUM(B10)</f>
         <v>600</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f>SUM(C10)</f>
         <v>800</v>
       </c>
-      <c r="J9">
+      <c r="K9">
+        <f>SUM(D10)</f>
+        <v>800</v>
+      </c>
+      <c r="L9">
+        <f>SUM(E10)</f>
+        <v>500</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>600</v>
@@ -866,33 +971,44 @@
         <v>800</v>
       </c>
       <c r="D10" s="1">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="1">
         <v>7</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f>B15/2</f>
         <v>550</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>C15/2</f>
         <v>650</v>
       </c>
-      <c r="J10">
+      <c r="K10">
+        <f>D15/2</f>
+        <v>650</v>
+      </c>
+      <c r="L10">
+        <f>E15/2</f>
+        <v>550</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>700</v>
@@ -901,71 +1017,93 @@
         <v>1200</v>
       </c>
       <c r="D11" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f>SUM(B17,B22)</f>
         <v>700</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>SUM(C17,C22)</f>
         <v>500</v>
       </c>
-      <c r="J11">
+      <c r="K11">
+        <f>SUM(D17,D22)</f>
+        <v>500</v>
+      </c>
+      <c r="L11">
+        <f>SUM(E17,E22)</f>
+        <v>500</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
         <v>-200</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f>SUM(B11,B20)</f>
         <v>1000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f>SUM(C11,C20)</f>
         <v>1700</v>
       </c>
-      <c r="J12">
+      <c r="K12">
+        <f>SUM(D11,D20)</f>
+        <v>1700</v>
+      </c>
+      <c r="L12">
+        <f>SUM(E11,E20)</f>
+        <v>1800</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="K12">
-        <v>867</v>
-      </c>
-      <c r="L12" s="3">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="N12" s="3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>900</v>
@@ -974,31 +1112,40 @@
         <v>1500</v>
       </c>
       <c r="D13" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>11</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
@@ -1007,36 +1154,47 @@
         <v>2000</v>
       </c>
       <c r="D14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14">
         <v>12</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f>SUM(B6,B18/2)</f>
         <v>1450</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f>SUM(C6,C18/2)</f>
         <v>2850</v>
       </c>
-      <c r="J14">
+      <c r="K14">
+        <f>SUM(D6,D18/2)</f>
+        <v>2850</v>
+      </c>
+      <c r="L14">
+        <f>SUM(E6,E18/2)</f>
+        <v>2500</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="K14">
-        <v>600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
         <v>1100</v>
@@ -1045,36 +1203,47 @@
         <v>1300</v>
       </c>
       <c r="D15" s="1">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F15" s="1">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15">
         <v>13</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f>SUM(B19,B23)</f>
         <v>3700</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f>SUM(C19,C23)</f>
         <v>9800</v>
       </c>
-      <c r="J15">
+      <c r="K15">
+        <f>SUM(D19,D23)</f>
+        <v>9800</v>
+      </c>
+      <c r="L15">
+        <f>SUM(E19,E23)</f>
+        <v>7500</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>6100</v>
-      </c>
-      <c r="K15">
-        <v>6008</v>
-      </c>
-      <c r="L15" s="3">
-        <v>5968</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3800</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>1300</v>
@@ -1083,33 +1252,44 @@
         <v>1700</v>
       </c>
       <c r="D16" s="1">
+        <v>1700</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="1">
         <v>6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>14</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f>B21</f>
         <v>150</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f>C21</f>
         <v>1000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
+        <f>D21</f>
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <f>E21</f>
+        <v>500</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="0"/>
-        <v>850</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="N16" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -1118,34 +1298,43 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>9</v>
       </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17">
         <v>15</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>1900</v>
@@ -1154,34 +1343,43 @@
         <v>3500</v>
       </c>
       <c r="D18" s="1">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="1">
         <v>12</v>
       </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18">
         <v>16</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>3000</v>
@@ -1190,20 +1388,26 @@
         <v>9000</v>
       </c>
       <c r="D19" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F19" s="1">
         <v>13</v>
       </c>
-      <c r="J19">
-        <f>SUM(J2:J18)</f>
-        <v>15850</v>
-      </c>
-      <c r="L19">
-        <f>SUM(L2:L18)</f>
-        <v>15744.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f>SUM(M2:M18)</f>
+        <v>9600</v>
+      </c>
+      <c r="N19">
+        <f>SUM(N2:N18)</f>
+        <v>9792.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>300</v>
@@ -1212,16 +1416,22 @@
         <v>500</v>
       </c>
       <c r="D20" s="1">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="1">
         <v>10</v>
       </c>
-      <c r="L20">
-        <f>L19-J19</f>
-        <v>-105.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <f>N19-M19</f>
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>150</v>
@@ -1230,12 +1440,18 @@
         <v>1000</v>
       </c>
       <c r="D21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>700</v>
@@ -1244,12 +1460,18 @@
         <v>500</v>
       </c>
       <c r="D22" s="1">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
         <v>700</v>
@@ -1258,12 +1480,18 @@
         <v>800</v>
       </c>
       <c r="D23" s="1">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <f>SUM(B2:B23)</f>
@@ -1272,6 +1500,14 @@
       <c r="C24">
         <f>SUM(C2:C23)</f>
         <v>31000</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="1">SUM(D2:D23)</f>
+        <v>31100</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>24500</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1519,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -1304,31 +1540,31 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>75</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -1336,18 +1572,18 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C2:C31)</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ref="D32" si="0">SUM(D2:D31)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <f>D32-B32</f>
-        <v>100</v>
+        <v>-150</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1595,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -1378,17 +1614,20 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -1415,10 +1654,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,74 +1673,85 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
+      <c r="C2">
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="B3" s="2">
         <f>B2*20</f>
         <v>1400</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="C3:D3" si="0">D2*20</f>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:D3" si="0">C2*20</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>43</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>1800</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f>B4*8</f>
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <f>B5*8</f>
         <v>344</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="C5:D5" si="1">D4*8</f>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:D6" si="1">C5*8</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2">
-        <f>SUM(B2:B31)</f>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <f>SUM(B2:B32)</f>
         <v>1857</v>
       </c>
-      <c r="C32" s="2">
-        <f>SUM(C2:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" ref="D32" si="2">SUM(D2:D31)</f>
+      <c r="C33" s="2">
+        <f>SUM(C2:C32)</f>
         <v>2550</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <f>C32-B32</f>
-        <v>-1857</v>
-      </c>
-      <c r="D33">
-        <f>D32-B32</f>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33" si="2">SUM(D2:D32)</f>
+        <v>2340</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>C33-B33</f>
         <v>693</v>
+      </c>
+      <c r="D34">
+        <f>D33-B33</f>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1763,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -1532,17 +1782,20 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -1588,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1596,10 +1849,10 @@
         <v>375</v>
       </c>
       <c r="C2">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="D2">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -1609,16 +1862,16 @@
       </c>
       <c r="C3">
         <f>C2*14</f>
-        <v>5810</v>
+        <v>6552</v>
       </c>
       <c r="D3">
         <f>D2*14</f>
-        <v>6552</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -1626,22 +1879,22 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C2:C31)</f>
-        <v>6225</v>
+        <v>7020</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ref="D32" si="0">SUM(D2:D31)</f>
-        <v>7020</v>
+        <v>6750</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>C32-B32</f>
-        <v>600</v>
+        <v>1395</v>
       </c>
       <c r="D33">
         <f>D32-B32</f>
-        <v>1395</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -1682,10 +1935,10 @@
         <v>216</v>
       </c>
       <c r="C2">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -1693,10 +1946,9 @@
         <v>500</v>
       </c>
       <c r="C3">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">B3*2</f>
         <v>1000</v>
       </c>
     </row>
@@ -1705,10 +1957,9 @@
         <v>500</v>
       </c>
       <c r="C4">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1717,10 +1968,10 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>970</v>
+        <v>250</v>
       </c>
       <c r="D5">
-        <v>250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1728,10 +1979,10 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>970</v>
+        <v>250</v>
       </c>
       <c r="D6">
-        <v>250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1739,10 +1990,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>970</v>
+        <v>250</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1750,10 +2001,9 @@
         <v>500</v>
       </c>
       <c r="C8">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1762,10 +2012,10 @@
         <v>216</v>
       </c>
       <c r="C9">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1773,11 +2023,10 @@
         <v>1400</v>
       </c>
       <c r="C10">
-        <v>970</v>
+        <v>2800</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>2800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -1785,11 +2034,10 @@
         <v>1400</v>
       </c>
       <c r="C11">
-        <v>970</v>
+        <v>2800</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>2800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1797,10 +2045,9 @@
         <v>500</v>
       </c>
       <c r="C12">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -1809,15 +2056,15 @@
         <v>100</v>
       </c>
       <c r="C13">
-        <v>970</v>
+        <v>250</v>
       </c>
       <c r="D13">
-        <v>250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -1825,22 +2072,22 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C2:C31)</f>
-        <v>11640</v>
+        <v>11600</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32" si="1">SUM(D2:D31)</f>
-        <v>11600</v>
+        <f t="shared" ref="D32" si="0">SUM(D2:D31)</f>
+        <v>9500</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>C32-B32</f>
-        <v>6008</v>
+        <v>5968</v>
       </c>
       <c r="D33">
         <f>D32-B32</f>
-        <v>5968</v>
+        <v>3868</v>
       </c>
     </row>
   </sheetData>
@@ -1873,23 +2120,23 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>425</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
+      <c r="C2">
+        <v>1190</v>
       </c>
       <c r="D2">
-        <v>1190</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -1897,18 +2144,18 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C2:C31)</f>
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ref="D32" si="0">SUM(D2:D31)</f>
-        <v>1190</v>
+        <v>750</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <f>D32-B32</f>
-        <v>765</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +2167,7 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -1939,17 +2186,20 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -1974,7 +2224,7 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -1993,17 +2243,20 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -2047,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -2055,10 +2308,10 @@
         <v>250</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="D2">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -2066,10 +2319,10 @@
         <v>250</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="D3">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -2077,10 +2330,10 @@
         <v>250</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="D4">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -2088,10 +2341,10 @@
         <v>250</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="D5">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2099,10 +2352,10 @@
         <v>250</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="D6">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2110,15 +2363,15 @@
         <v>250</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="D7">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -2126,18 +2379,18 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ref="C32:D32" si="0">SUM(C2:C31)</f>
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>2250</v>
+        <v>1650</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <f>D32-B32</f>
-        <v>750</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2406,9 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2168,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -2188,7 +2443,7 @@
         <v>88</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>88</v>
@@ -2210,7 +2465,7 @@
         <v>55</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>55</v>
@@ -2232,7 +2487,7 @@
         <v>55</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>55</v>
@@ -2243,7 +2498,7 @@
         <v>55</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>55</v>
@@ -2254,7 +2509,7 @@
         <v>55</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>55</v>
@@ -2265,7 +2520,7 @@
         <v>88</v>
       </c>
       <c r="C10">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>88</v>
@@ -2309,7 +2564,7 @@
         <v>88</v>
       </c>
       <c r="C14">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>88</v>
@@ -2342,7 +2597,7 @@
         <v>55</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>55</v>
@@ -2364,7 +2619,7 @@
         <v>88</v>
       </c>
       <c r="C19">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <v>88</v>
@@ -2375,7 +2630,7 @@
         <v>88</v>
       </c>
       <c r="C20">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>88</v>
@@ -2386,7 +2641,7 @@
         <v>55</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>55</v>
@@ -2397,7 +2652,7 @@
         <v>550</v>
       </c>
       <c r="C22">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="D22">
         <v>750</v>
@@ -2408,7 +2663,7 @@
         <v>550</v>
       </c>
       <c r="C23">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="D23">
         <v>750</v>
@@ -2419,10 +2674,10 @@
         <v>237.6</v>
       </c>
       <c r="C24">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="D24">
-        <v>750</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2430,10 +2685,10 @@
         <v>550</v>
       </c>
       <c r="C25">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D25">
-        <v>500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,10 +2696,10 @@
         <v>550</v>
       </c>
       <c r="C26">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D26">
-        <v>500</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,7 +2710,7 @@
         <v>500</v>
       </c>
       <c r="D27">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,7 +2721,7 @@
         <v>500</v>
       </c>
       <c r="D28">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2477,7 +2732,7 @@
         <v>500</v>
       </c>
       <c r="D29">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2488,12 +2743,12 @@
         <v>500</v>
       </c>
       <c r="D30">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -2501,18 +2756,18 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ref="C32:D32" si="0">SUM(C2:C31)</f>
-        <v>8385</v>
+        <v>8270</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>8270</v>
+        <v>7020</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <f>D32-B32</f>
-        <v>2131.9999999999982</v>
+        <v>881.99999999999818</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -2553,10 +2808,10 @@
         <v>243</v>
       </c>
       <c r="C2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -2564,10 +2819,10 @@
         <v>562.5</v>
       </c>
       <c r="C3">
-        <v>581</v>
+        <v>562.5</v>
       </c>
       <c r="D3">
-        <v>562.5</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -2586,10 +2841,10 @@
         <v>562.5</v>
       </c>
       <c r="C5">
-        <v>581</v>
+        <v>562.5</v>
       </c>
       <c r="D5">
-        <v>562.5</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2597,10 +2852,10 @@
         <v>112.5</v>
       </c>
       <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6">
         <v>125</v>
-      </c>
-      <c r="D6">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2608,10 +2863,10 @@
         <v>562.5</v>
       </c>
       <c r="C7">
-        <v>581</v>
+        <v>562.5</v>
       </c>
       <c r="D7">
-        <v>562.5</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2619,10 +2874,10 @@
         <v>112.5</v>
       </c>
       <c r="C8">
+        <v>250</v>
+      </c>
+      <c r="D8">
         <v>125</v>
-      </c>
-      <c r="D8">
-        <v>250</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -2630,15 +2885,15 @@
         <v>112.5</v>
       </c>
       <c r="C9">
+        <v>250</v>
+      </c>
+      <c r="D9">
         <v>125</v>
-      </c>
-      <c r="D9">
-        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -2646,18 +2901,18 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ref="C32:D32" si="0">SUM(C2:C31)</f>
-        <v>3943</v>
+        <v>4512.5</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>4512.5</v>
+        <v>4075</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <f>D32-B32</f>
-        <v>669.5</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +2928,9 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2688,15 +2945,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>225</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
+      <c r="C2">
+        <v>250</v>
       </c>
       <c r="D2">
         <v>250</v>
@@ -2706,22 +2963,31 @@
       <c r="B3">
         <v>900</v>
       </c>
+      <c r="C3">
+        <v>930</v>
+      </c>
       <c r="D3">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>900</v>
       </c>
+      <c r="C4">
+        <v>930</v>
+      </c>
       <c r="D4">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>225</v>
       </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
       <c r="D5">
         <v>250</v>
       </c>
@@ -2730,22 +2996,31 @@
       <c r="B6">
         <v>900</v>
       </c>
+      <c r="C6">
+        <v>930</v>
+      </c>
       <c r="D6">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>900</v>
       </c>
+      <c r="C7">
+        <v>930</v>
+      </c>
       <c r="D7">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>225</v>
       </c>
+      <c r="C8">
+        <v>250</v>
+      </c>
       <c r="D8">
         <v>250</v>
       </c>
@@ -2754,6 +3029,9 @@
       <c r="B9">
         <v>225</v>
       </c>
+      <c r="C9">
+        <v>250</v>
+      </c>
       <c r="D9">
         <v>250</v>
       </c>
@@ -2762,6 +3040,9 @@
       <c r="B10">
         <v>225</v>
       </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
       <c r="D10">
         <v>250</v>
       </c>
@@ -2770,14 +3051,20 @@
       <c r="B11">
         <v>900</v>
       </c>
+      <c r="C11">
+        <v>930</v>
+      </c>
       <c r="D11">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>225</v>
       </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
       <c r="D12">
         <v>250</v>
       </c>
@@ -2786,6 +3073,9 @@
       <c r="B13">
         <v>225</v>
       </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
       <c r="D13">
         <v>250</v>
       </c>
@@ -2794,72 +3084,90 @@
       <c r="B14">
         <v>900</v>
       </c>
+      <c r="C14">
+        <v>930</v>
+      </c>
       <c r="D14">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>900</v>
       </c>
+      <c r="C15">
+        <v>930</v>
+      </c>
       <c r="D15">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>900</v>
       </c>
+      <c r="C16">
+        <v>930</v>
+      </c>
       <c r="D16">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>900</v>
       </c>
+      <c r="C17">
+        <v>930</v>
+      </c>
       <c r="D17">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>900</v>
       </c>
+      <c r="C18">
+        <v>930</v>
+      </c>
       <c r="D18">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>225</v>
       </c>
+      <c r="C19">
+        <v>250</v>
+      </c>
       <c r="D19">
         <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
         <v>10800</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:D32" si="0">SUM(C2:C31)</f>
-        <v>0</v>
+        <f>SUM(C2:C31)</f>
+        <v>11300</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>11300</v>
+        <f t="shared" ref="D32" si="0">SUM(D2:D31)</f>
+        <v>11250</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33">
         <f>D32-B32</f>
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -2892,15 +3200,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1400</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
+      <c r="C2">
+        <v>1500</v>
       </c>
       <c r="D2">
         <v>1500</v>
@@ -2910,6 +3218,9 @@
       <c r="B3">
         <v>1400</v>
       </c>
+      <c r="C3">
+        <v>1500</v>
+      </c>
       <c r="D3">
         <v>1500</v>
       </c>
@@ -2918,6 +3229,9 @@
       <c r="B4">
         <v>1400</v>
       </c>
+      <c r="C4">
+        <v>1500</v>
+      </c>
       <c r="D4">
         <v>1500</v>
       </c>
@@ -2926,6 +3240,9 @@
       <c r="B5">
         <v>1400</v>
       </c>
+      <c r="C5">
+        <v>1500</v>
+      </c>
       <c r="D5">
         <v>1500</v>
       </c>
@@ -2934,21 +3251,24 @@
       <c r="B6">
         <v>1400</v>
       </c>
+      <c r="C6">
+        <v>1500</v>
+      </c>
       <c r="D6">
         <v>1500</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
         <v>7000</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:D32" si="0">SUM(C2:C31)</f>
-        <v>0</v>
+        <f>SUM(C2:C31)</f>
+        <v>7500</v>
       </c>
       <c r="D32" s="2">
         <f>SUM(D2:D31)</f>
@@ -2992,15 +3312,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -3008,10 +3328,10 @@
         <v>216</v>
       </c>
       <c r="C3">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D3">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -3021,16 +3341,16 @@
       </c>
       <c r="C4">
         <f>C3*84</f>
-        <v>18732</v>
+        <v>19404</v>
       </c>
       <c r="D4">
         <f>D3*84</f>
-        <v>19404</v>
+        <v>19320</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
@@ -3038,22 +3358,22 @@
       </c>
       <c r="C32" s="2">
         <f>SUM(C2:C31)</f>
-        <v>18955</v>
+        <v>19635</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ref="D32" si="0">SUM(D2:D31)</f>
-        <v>19635</v>
+        <v>19550</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>C32-B32</f>
-        <v>595</v>
+        <v>1275</v>
       </c>
       <c r="D33">
         <f>D32-B32</f>
-        <v>1275</v>
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -3067,10 +3387,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,15 +3406,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -3102,11 +3422,11 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
         <f>B3*3</f>
         <v>60</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -3114,11 +3434,11 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <f>B4*3</f>
+        <v>60</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D24" si="0">B4*3</f>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -3126,7 +3446,7 @@
         <v>12.5</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>25</v>
@@ -3137,11 +3457,11 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <f>B6*3</f>
+        <v>60</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -3149,11 +3469,11 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <f>B7*3</f>
+        <v>60</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -3161,7 +3481,7 @@
         <v>12.5</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>25</v>
@@ -3172,34 +3492,33 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <f>B9*3</f>
+        <v>60</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -3207,11 +3526,11 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <f t="shared" ref="C12:C17" si="0">B12*3</f>
+        <v>60</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -3219,11 +3538,11 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
         <f t="shared" si="0"/>
         <v>60</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -3231,11 +3550,11 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
         <f t="shared" si="0"/>
         <v>60</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -3243,11 +3562,11 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
         <f t="shared" si="0"/>
         <v>60</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -3255,123 +3574,135 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="D16">
         <v>50</v>
       </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C25" si="1">B19*3</f>
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="D21">
         <v>50</v>
       </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>50</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>50</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="D24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
+      <c r="C25">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2">
-        <f>SUM(B2:B31)</f>
-        <v>517.5</v>
-      </c>
-      <c r="C32" s="2">
-        <f>SUM(C2:C31)</f>
-        <v>2100</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" ref="D32" si="1">SUM(D2:D31)</f>
-        <v>1515</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <f>C32-B32</f>
-        <v>1582.5</v>
-      </c>
-      <c r="D33">
-        <f>D32-B32</f>
-        <v>997.5</v>
+      <c r="D25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <f>SUM(B2:B32)</f>
+        <v>537.5</v>
+      </c>
+      <c r="C33" s="2">
+        <f>SUM(C2:C32)</f>
+        <v>1575</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33" si="2">SUM(D2:D32)</f>
+        <v>1125</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>C33-B33</f>
+        <v>1037.5</v>
+      </c>
+      <c r="D34">
+        <f>D33-B33</f>
+        <v>587.5</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +3714,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -3404,20 +3735,20 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
         <f>SUM(B2:B31)</f>
